--- a/Team_task_Chau_Qui_Thao.xlsx
+++ b/Team_task_Chau_Qui_Thao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CYPERSOFT BOOTCAMP\PoochCareRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22653B83-54AD-4ECB-A7B3-3695C8ADCB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BFA9E7-99B6-4761-A8C3-16882164D9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -63,18 +63,12 @@
     <t>Header</t>
   </si>
   <si>
-    <t>Dev2</t>
-  </si>
-  <si>
     <t xml:space="preserve">     Logo</t>
   </si>
   <si>
     <t>Dev A</t>
   </si>
   <si>
-    <t>Nhật Trường</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Navbar</t>
   </si>
   <si>
@@ -142,6 +136,9 @@
   </si>
   <si>
     <t>Quí&amp;Thảo</t>
+  </si>
+  <si>
+    <t>Châu, Quí, Thảo</t>
   </si>
 </sst>
 </file>
@@ -231,7 +228,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -343,21 +340,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -367,21 +349,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -389,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -409,9 +376,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -421,13 +385,6 @@
     <xf numFmtId="9" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -444,13 +401,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -459,6 +409,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,8 +656,8 @@
   </sheetPr>
   <dimension ref="A1:J986"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -714,10 +667,10 @@
     <col min="3" max="3" width="10.8984375" customWidth="1"/>
     <col min="4" max="4" width="7.59765625" customWidth="1"/>
     <col min="5" max="5" width="10.19921875" customWidth="1"/>
-    <col min="6" max="6" width="7.59765625" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" customWidth="1"/>
     <col min="7" max="7" width="9.19921875" customWidth="1"/>
     <col min="8" max="8" width="7.59765625" customWidth="1"/>
-    <col min="9" max="9" width="8.69921875" customWidth="1"/>
+    <col min="9" max="9" width="13.796875" customWidth="1"/>
     <col min="10" max="10" width="33" customWidth="1"/>
     <col min="11" max="26" width="7.59765625" customWidth="1"/>
   </cols>
@@ -755,513 +708,636 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="21.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="16">
         <v>45118</v>
       </c>
-      <c r="C2" s="23">
-        <v>45128</v>
-      </c>
-      <c r="D2" s="8">
-        <v>1</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7">
-        <v>44179</v>
-      </c>
-      <c r="H2" s="10">
-        <v>0.95</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="11"/>
+      <c r="C2" s="16">
+        <v>45128</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="16">
+        <v>45128</v>
+      </c>
+      <c r="G2" s="16">
+        <v>45129</v>
+      </c>
+      <c r="H2" s="9">
+        <v>1</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="16">
+        <v>45118</v>
+      </c>
+      <c r="C3" s="16">
+        <v>45129</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="23">
-        <v>45118</v>
-      </c>
-      <c r="C3" s="23">
+      <c r="F3" s="16">
+        <v>45128</v>
+      </c>
+      <c r="G3" s="16">
         <v>45129</v>
       </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7">
-        <v>44179</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="11"/>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="23">
+      <c r="A4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="16">
         <v>45118</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="16">
         <v>45130</v>
       </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7">
-        <v>44179</v>
-      </c>
-      <c r="H4" s="13">
-        <f>SUM(H5:H7)/3</f>
-        <v>0.9</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="11"/>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="16">
+        <v>45128</v>
+      </c>
+      <c r="G4" s="16">
+        <v>45129</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="23">
+      <c r="A5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="16">
         <v>45118</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="16">
         <v>45131</v>
       </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="7">
-        <v>44179</v>
-      </c>
-      <c r="H5" s="13">
-        <v>1</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="11"/>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="16">
+        <v>45128</v>
+      </c>
+      <c r="G5" s="16">
+        <v>45129</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="23">
+      <c r="A6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="16">
         <v>45118</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="16">
         <v>45132</v>
       </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="7">
-        <v>44179</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="11"/>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="16">
+        <v>45128</v>
+      </c>
+      <c r="G6" s="16">
+        <v>45129</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="23">
+      <c r="A7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="16">
         <v>45118</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="16">
         <v>45133</v>
       </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="7">
-        <v>44179</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="15"/>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="16">
+        <v>45128</v>
+      </c>
+      <c r="G7" s="16">
+        <v>45129</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="23">
+      <c r="A8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="16">
         <v>45118</v>
       </c>
-      <c r="C8" s="23">
-        <v>45128</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7">
-        <v>44179</v>
-      </c>
-      <c r="H8" s="10">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="11"/>
+      <c r="C8" s="16">
+        <v>45128</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="16">
+        <v>45128</v>
+      </c>
+      <c r="G8" s="16">
+        <v>45129</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="23">
+      <c r="A9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="16">
         <v>45118</v>
       </c>
-      <c r="C9" s="23">
-        <v>45128</v>
-      </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="11"/>
+      <c r="C9" s="16">
+        <v>45128</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="16">
+        <v>45128</v>
+      </c>
+      <c r="G9" s="16">
+        <v>45129</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="23">
+      <c r="A10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="16">
         <v>45118</v>
       </c>
-      <c r="C10" s="23">
-        <v>45128</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="11"/>
+      <c r="C10" s="16">
+        <v>45128</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="16">
+        <v>45128</v>
+      </c>
+      <c r="G10" s="16">
+        <v>45129</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="23">
+      <c r="A11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="16">
         <v>45118</v>
       </c>
-      <c r="C11" s="23">
-        <v>45128</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="11"/>
+      <c r="C11" s="16">
+        <v>45128</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="16">
+        <v>45128</v>
+      </c>
+      <c r="G11" s="16">
+        <v>45129</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="23">
+      <c r="A12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="16">
         <v>45118</v>
       </c>
-      <c r="C12" s="23">
-        <v>45128</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="11"/>
+      <c r="C12" s="16">
+        <v>45128</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="16">
+        <v>45128</v>
+      </c>
+      <c r="G12" s="16">
+        <v>45129</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="23">
+      <c r="A13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="16">
         <v>45118</v>
       </c>
-      <c r="C13" s="23">
-        <v>45128</v>
-      </c>
-      <c r="D13" s="8">
-        <v>1</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="11"/>
+      <c r="C13" s="16">
+        <v>45128</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="16">
+        <v>45128</v>
+      </c>
+      <c r="G13" s="16">
+        <v>45129</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="23">
+      <c r="A14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="16">
         <v>45118</v>
       </c>
-      <c r="C14" s="23">
-        <v>45128</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="11"/>
+      <c r="C14" s="16">
+        <v>45128</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="16">
+        <v>45128</v>
+      </c>
+      <c r="G14" s="16">
+        <v>45129</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="23">
+      <c r="A15" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="16">
         <v>45118</v>
       </c>
-      <c r="C15" s="23">
-        <v>45128</v>
-      </c>
-      <c r="D15" s="8">
-        <v>1</v>
-      </c>
-      <c r="E15" s="25" t="s">
+      <c r="C15" s="16">
+        <v>45128</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="16">
+        <v>45128</v>
+      </c>
+      <c r="G15" s="16">
+        <v>45129</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1</v>
+      </c>
+      <c r="I15" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="16"/>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="23">
+      <c r="A16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="16">
         <v>45118</v>
       </c>
-      <c r="C16" s="23">
-        <v>45128</v>
-      </c>
-      <c r="D16" s="8">
-        <v>1</v>
-      </c>
-      <c r="E16" s="25" t="s">
+      <c r="C16" s="16">
+        <v>45128</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="16">
+        <v>45128</v>
+      </c>
+      <c r="G16" s="16">
+        <v>45129</v>
+      </c>
+      <c r="H16" s="9">
+        <v>1</v>
+      </c>
+      <c r="I16" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="16"/>
+      <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="23">
+      <c r="A17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="16">
         <v>45118</v>
       </c>
-      <c r="C17" s="23">
-        <v>45128</v>
-      </c>
-      <c r="D17" s="8">
-        <v>1</v>
-      </c>
-      <c r="E17" s="25" t="s">
+      <c r="C17" s="16">
+        <v>45128</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="16">
+        <v>45128</v>
+      </c>
+      <c r="G17" s="16">
+        <v>45129</v>
+      </c>
+      <c r="H17" s="9">
+        <v>1</v>
+      </c>
+      <c r="I17" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="16"/>
+      <c r="J17" s="12"/>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="23">
+      <c r="A18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="16">
         <v>45118</v>
       </c>
-      <c r="C18" s="23">
-        <v>45128</v>
-      </c>
-      <c r="D18" s="8">
-        <v>1</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="16"/>
+      <c r="C18" s="16">
+        <v>45128</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="16">
+        <v>45128</v>
+      </c>
+      <c r="G18" s="16">
+        <v>45129</v>
+      </c>
+      <c r="H18" s="9">
+        <v>1</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="23">
+      <c r="A19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="16">
         <v>45118</v>
       </c>
-      <c r="C19" s="23">
-        <v>45128</v>
-      </c>
-      <c r="D19" s="8">
-        <v>1</v>
-      </c>
-      <c r="E19" s="25" t="s">
+      <c r="C19" s="16">
+        <v>45128</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="16">
+        <v>45128</v>
+      </c>
+      <c r="G19" s="16">
+        <v>45129</v>
+      </c>
+      <c r="H19" s="9">
+        <v>1</v>
+      </c>
+      <c r="I19" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="16"/>
+      <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="23">
-        <v>45128</v>
-      </c>
-      <c r="C20" s="23">
+      <c r="A20" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="16">
+        <v>45128</v>
+      </c>
+      <c r="C20" s="16">
         <v>45130</v>
       </c>
-      <c r="D20" s="8">
-        <v>1</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="16"/>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="16">
+        <v>45128</v>
+      </c>
+      <c r="G20" s="16">
+        <v>45129</v>
+      </c>
+      <c r="H20" s="9">
+        <v>1</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="23">
-        <v>45128</v>
-      </c>
-      <c r="C21" s="23">
+      <c r="A21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="16">
+        <v>45128</v>
+      </c>
+      <c r="C21" s="16">
         <v>45132</v>
       </c>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="25" t="s">
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="16">
+        <v>45128</v>
+      </c>
+      <c r="G21" s="16">
+        <v>45129</v>
+      </c>
+      <c r="H21" s="9">
+        <v>1</v>
+      </c>
+      <c r="I21" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
+      <c r="J21" s="15"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="23">
-        <v>45128</v>
-      </c>
-      <c r="C22" s="23">
+      <c r="A22" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="16">
+        <v>45128</v>
+      </c>
+      <c r="C22" s="16">
         <v>45132</v>
       </c>
-      <c r="D22" s="8">
-        <v>1</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="16">
+        <v>45128</v>
+      </c>
+      <c r="G22" s="16">
+        <v>45129</v>
+      </c>
+      <c r="H22" s="9">
+        <v>1</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="15"/>
     </row>
-    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H23" s="21"/>
-    </row>
+    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2231,7 +2307,7 @@
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2 H4:H14">
+  <conditionalFormatting sqref="H2:H22">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
